--- a/biology/Médecine/Vincent_Barras/Vincent_Barras.xlsx
+++ b/biology/Médecine/Vincent_Barras/Vincent_Barras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Barras, né le 8 novembre 1956 en Valais, est un médecin, historien et performer suisse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1974 et 1988, Vincent Barras obtient un diplôme de médecine[1], ainsi qu'une licence ès lettres de l'Université de Genève. Il acquiert une formation post-grade en histoire et philosophie des sciences à l'Université de Paris I en 1988, puis au Wellcome Institute for the History of Medicine à Londres en 1994. Vincent Barras s’oriente vers l’histoire de la médecine, rejoignant l’Institut Louis-Jeantet d’Histoire de la médecine de l'Université de Genève lors de sa création en 1990. En 1995, il est nommé professeur associé à l'Université de Lausanne, puis professeur ordinaire en 2001. Il est directeur jusqu'en 2022 de l’Institut des humanités en médecine ex-Institut universitaire d’Histoire de la médecine et de la santé, CHUV et Faculté de biologie et de médecine de l'Université de Lausanne. Il s’intéresse à plusieurs domaines de l’histoire de la médecine, incluant la médecine antique et celle des Lumières (le docteur Samuel Auguste Tissot en particulier), la psychiatrie mais également la médecine sociale et légale, la philosophie de la médecine. Il assure jusqu'en 2022 un enseignement d’histoire de la médecine aux étudiants de l’Université de Lausanne, ainsi qu'à la Haute École d'art et de design (HEAD) de Genève.
-Il est l'auteur du livre Poésies Sonores avec Nicholas Zurbrugg en 1992[2], et publie également des essais dans des revues, catalogues et ouvrages spécialisés, portant sur la poésie, la musique, l’art contemporain, l’histoire de la médecine, du corps, de la psychiatrie. Éditeur de la revue puis des éditions Contrechamps, il organise entre 1987 et 2008 les soirées de poésie sonore dans le cadre de La Bâtie-Festival de Genève et de l'association Roaratorio. Il est également l'auteur de traductions d'ouvrages de Robert Lax, John Cage, Georges Séféris, Anton Webern, Simon Cutts, Edoardo Sanguineti, Galien, Eugen Gomringer, Nora Gomringer, Elke Erb, Steven Feld. Il développe également un travail d’écriture, de poésie sonore et de performance.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1974 et 1988, Vincent Barras obtient un diplôme de médecine, ainsi qu'une licence ès lettres de l'Université de Genève. Il acquiert une formation post-grade en histoire et philosophie des sciences à l'Université de Paris I en 1988, puis au Wellcome Institute for the History of Medicine à Londres en 1994. Vincent Barras s’oriente vers l’histoire de la médecine, rejoignant l’Institut Louis-Jeantet d’Histoire de la médecine de l'Université de Genève lors de sa création en 1990. En 1995, il est nommé professeur associé à l'Université de Lausanne, puis professeur ordinaire en 2001. Il est directeur jusqu'en 2022 de l’Institut des humanités en médecine ex-Institut universitaire d’Histoire de la médecine et de la santé, CHUV et Faculté de biologie et de médecine de l'Université de Lausanne. Il s’intéresse à plusieurs domaines de l’histoire de la médecine, incluant la médecine antique et celle des Lumières (le docteur Samuel Auguste Tissot en particulier), la psychiatrie mais également la médecine sociale et légale, la philosophie de la médecine. Il assure jusqu'en 2022 un enseignement d’histoire de la médecine aux étudiants de l’Université de Lausanne, ainsi qu'à la Haute École d'art et de design (HEAD) de Genève.
+Il est l'auteur du livre Poésies Sonores avec Nicholas Zurbrugg en 1992, et publie également des essais dans des revues, catalogues et ouvrages spécialisés, portant sur la poésie, la musique, l’art contemporain, l’histoire de la médecine, du corps, de la psychiatrie. Éditeur de la revue puis des éditions Contrechamps, il organise entre 1987 et 2008 les soirées de poésie sonore dans le cadre de La Bâtie-Festival de Genève et de l'association Roaratorio. Il est également l'auteur de traductions d'ouvrages de Robert Lax, John Cage, Georges Séféris, Anton Webern, Simon Cutts, Edoardo Sanguineti, Galien, Eugen Gomringer, Nora Gomringer, Elke Erb, Steven Feld. Il développe également un travail d’écriture, de poésie sonore et de performance.
 </t>
         </is>
       </c>
@@ -545,22 +559,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres sonores
-Au homard, LP, 1988 (avec Jacques Demierre)
+          <t>Œuvres sonores</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Au homard, LP, 1988 (avec Jacques Demierre)
 Homard et autres pièces inquiétantes et capitales (avec Jacques Demierre), CD, ASM, 2000
 gad gad vazo gadati (avec Jacques Demierre), CD, Madam/Héros-Limite, 2004
 voicing through saussure (avec Jacques Demierre), 3 CD, Bardem, 2013
-Karst, LP, (avec Abstral Compost, d’incise, Cyril Bondy, Luc Müller), Insub LP01, 2013
-Essais (art, littérature, poésie, culture)
-Vincent Barras (dir.) et Nicholas Zurbrugg (dir.), Poésies sonores, Genève, Éditions Contrechamps., 1993, 273 p. (ISBN 2-940068-00-3)
+Karst, LP, (avec Abstral Compost, d’incise, Cyril Bondy, Luc Müller), Insub LP01, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Barras</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Barras</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essais (art, littérature, poésie, culture)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vincent Barras (dir.) et Nicholas Zurbrugg (dir.), Poésies sonores, Genève, Éditions Contrechamps., 1993, 273 p. (ISBN 2-940068-00-3)
 Anastasia Danaé Lazaridis (dir.), Vincent Barras (dir.) et Terpsichore Birchler (dir.), Voukóleia : mélanges offerts au professeur Bertrand Bouvier, Genève, Édition de Belles-Lettres, 1995, 474 p.
 Vincent Barras et Jacques Demierre, Symptôme, Genève, École supérieure des Beaux-Arts, coll. « N’est-ce pas? » (no 6), 2006, 55 p. (ISBN 2-9700474-9-7)
 Jacques Gasser (dir.), Philippe Kaenel (dir.), Vincent Barras (dir.), Philippe Junod (dir.) et Olivier Mottaz (dir), Visions du rêve, Chêne-Bourg/Genève, Georg éditeur, 2002, 271 p. (ISBN 2-8257-0804-6)
 Vincent Barras (dir.), Anatomies : De Vésale au virtuel, Lausanne, BHMS Éditions, 2014, 103 p. (ISBN 978-2-9700640-9-1)
 Camille Noverraz, Gilles Monney et Vincent Barras, Pierre Decker : médecin et collectioneur, Lausanne, BHMS Éditions, coll. « Collection Hors-série », 2021, 239 p. (ISBN 978-2-940527-13-7)
-Vincent Barras, Mondes magiques : portrait d'Alexia Turlin, Lausanne, art&amp;fiction, coll. « Portraits », 2023, 92 p. (ISBN 978-2-88964-060-7)
-Histoire de la médecine
-Galien, Vincent Barras (Introducteur et traducteur) et al., L'âme et ses passions, Paris, Les Belles Lettres, 1995, 155 p. (ISBN 2251339264)
+Vincent Barras, Mondes magiques : portrait d'Alexia Turlin, Lausanne, art&amp;fiction, coll. « Portraits », 2023, 92 p. (ISBN 978-2-88964-060-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vincent_Barras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Barras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Histoire de la médecine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Galien, Vincent Barras (Introducteur et traducteur) et al., L'âme et ses passions, Paris, Les Belles Lettres, 1995, 155 p. (ISBN 2251339264)
 René Sigrist, Vincent Barras et Marc Ratcliff, Louis Jurine, chirurgien et naturaliste (1751-1819), Chêne-Bourg, Georg éditeur, coll. « Bibliothèque d'histoire des sciences (Georg) » (no 2), 1999, 494 p. (ISBN 978-2-825706-40-4)
 Micheline Louis-Courvoisier (dir.) et Vincent Barras (dir.), La médecine des Lumières : tout autour de Tissot, Georg éditeur, 2001, 358 p. (ISBN 978-2-82570-704-3)
 Marie-France Vouilloz Burnier et Vincent Barras, De l’hospice au réseau santé : Histoire de la santé publique et des systèmes hospitaliers en Valais, XIXe – XXe siècle, Sierre, Éditions Monographic, 2004, 442 p. (ISBN 978-2-88341-109-8)
@@ -573,33 +660,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Vincent_Barras</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vincent_Barras</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Manon Germond, "Au service de la santé des enfants depuis 150 ans"[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Manon Germond, "Au service de la santé des enfants depuis 150 ans".
 « Vincent Barras », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 La médecine des Lumières, p. 349
 Festival Archipel 2010 Genève • biographie de Vincent Barras
